--- a/Code/Results/Cases/Case_3_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.70009210261444</v>
+        <v>11.03862867309277</v>
       </c>
       <c r="C2">
-        <v>7.450472302040617</v>
+        <v>10.46362126793317</v>
       </c>
       <c r="D2">
-        <v>5.346536281846745</v>
+        <v>5.013500794671782</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.16618345986665</v>
+        <v>23.245453624285</v>
       </c>
       <c r="G2">
-        <v>19.27352549061538</v>
+        <v>26.91683923314161</v>
       </c>
       <c r="H2">
-        <v>8.345008952698073</v>
+        <v>13.94228090598551</v>
       </c>
       <c r="I2">
-        <v>13.66427313360102</v>
+        <v>22.15002040049483</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.97066804727409</v>
+        <v>8.439931415931676</v>
       </c>
       <c r="L2">
-        <v>8.09582139836742</v>
+        <v>10.69127450089207</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.18995642055368</v>
+        <v>20.95551894564453</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.75151208823636</v>
+        <v>10.69467902262472</v>
       </c>
       <c r="C3">
-        <v>7.514670889672256</v>
+        <v>10.48912479837419</v>
       </c>
       <c r="D3">
-        <v>5.131515087672342</v>
+        <v>4.930791152058882</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.0093755567867</v>
+        <v>23.30628689449248</v>
       </c>
       <c r="G3">
-        <v>19.1812871405712</v>
+        <v>27.02407541806606</v>
       </c>
       <c r="H3">
-        <v>8.433474961649981</v>
+        <v>13.99159993323542</v>
       </c>
       <c r="I3">
-        <v>13.85811994285227</v>
+        <v>22.25160119455323</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.37985191887111</v>
+        <v>8.155509766788979</v>
       </c>
       <c r="L3">
-        <v>7.809009051568892</v>
+        <v>10.66304055458695</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.28555878908632</v>
+        <v>21.04068496122188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.13471576124448</v>
+        <v>10.47884062508277</v>
       </c>
       <c r="C4">
-        <v>7.556102321141029</v>
+        <v>10.50581232053383</v>
       </c>
       <c r="D4">
-        <v>4.994184866329202</v>
+        <v>4.878619746198796</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.92818706276054</v>
+        <v>23.34973631702271</v>
       </c>
       <c r="G4">
-        <v>19.14967816432453</v>
+        <v>27.09858183348178</v>
       </c>
       <c r="H4">
-        <v>8.492587522897558</v>
+        <v>14.02398276135783</v>
       </c>
       <c r="I4">
-        <v>13.98738890165452</v>
+        <v>22.31821212594399</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.00031954251001</v>
+        <v>7.974326102315008</v>
       </c>
       <c r="L4">
-        <v>7.632021710550942</v>
+        <v>10.64781084780533</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.3556099904473</v>
+        <v>21.09729974426048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.87470911292991</v>
+        <v>10.38984506467465</v>
       </c>
       <c r="C5">
-        <v>7.573490539627906</v>
+        <v>10.51287181592245</v>
       </c>
       <c r="D5">
-        <v>4.936933327980736</v>
+        <v>4.857024593929054</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.89882471490056</v>
+        <v>23.36897184404096</v>
       </c>
       <c r="G5">
-        <v>19.14286018742099</v>
+        <v>27.13111252999717</v>
       </c>
       <c r="H5">
-        <v>8.517846307160292</v>
+        <v>14.03770760383391</v>
       </c>
       <c r="I5">
-        <v>14.04254820290627</v>
+        <v>22.34642269433109</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.84154292876498</v>
+        <v>7.898917771888166</v>
       </c>
       <c r="L5">
-        <v>7.55978543174864</v>
+        <v>10.64213899967354</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.38689373192851</v>
+        <v>21.12145638684692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.8310120076723</v>
+        <v>10.37500862718575</v>
       </c>
       <c r="C6">
-        <v>7.57640827172491</v>
+        <v>10.51405971314626</v>
       </c>
       <c r="D6">
-        <v>4.927350413051435</v>
+        <v>4.853418928649978</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.89417160604351</v>
+        <v>23.37225815182638</v>
       </c>
       <c r="G6">
-        <v>19.14208721509827</v>
+        <v>27.13664492282801</v>
       </c>
       <c r="H6">
-        <v>8.522110172840284</v>
+        <v>14.04001853804758</v>
       </c>
       <c r="I6">
-        <v>14.05185456268105</v>
+        <v>22.35117142407355</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.8149331178296</v>
+        <v>7.886303431642807</v>
       </c>
       <c r="L6">
-        <v>7.5477872215386</v>
+        <v>10.64122959909316</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.39225035030641</v>
+        <v>21.12553311287489</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.13124428940307</v>
+        <v>10.47764443002599</v>
       </c>
       <c r="C7">
-        <v>7.556334783715791</v>
+        <v>10.50590647704483</v>
       </c>
       <c r="D7">
-        <v>4.993417903022821</v>
+        <v>4.878329843479753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.92777610357237</v>
+        <v>23.34998954627174</v>
       </c>
       <c r="G7">
-        <v>19.14956198196681</v>
+        <v>27.09901178580636</v>
       </c>
       <c r="H7">
-        <v>8.492923480021489</v>
+        <v>14.02416571875438</v>
       </c>
       <c r="I7">
-        <v>13.98812287408966</v>
+        <v>22.31858826713587</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.99819473274074</v>
+        <v>7.973315393705581</v>
       </c>
       <c r="L7">
-        <v>7.631047811412926</v>
+        <v>10.64773218562678</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.35602096253371</v>
+        <v>21.09762113508298</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.38014233198549</v>
+        <v>10.92107524383545</v>
       </c>
       <c r="C8">
-        <v>7.472189037813208</v>
+        <v>10.472201851051</v>
       </c>
       <c r="D8">
-        <v>5.273523871962546</v>
+        <v>4.985278664844802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.10894387514157</v>
+        <v>23.26516125231658</v>
       </c>
       <c r="G8">
-        <v>19.23639469076283</v>
+        <v>26.9520106027581</v>
       </c>
       <c r="H8">
-        <v>8.374494922057121</v>
+        <v>13.95885029344204</v>
       </c>
       <c r="I8">
-        <v>13.72892536533434</v>
+        <v>22.1841654081106</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.77049037437942</v>
+        <v>8.343262606995447</v>
       </c>
       <c r="L8">
-        <v>7.997174983105862</v>
+        <v>10.681105354174</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.22049275326049</v>
+        <v>20.98398629294027</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.55761793000034</v>
+        <v>11.74853485867329</v>
       </c>
       <c r="C9">
-        <v>7.323242091704832</v>
+        <v>10.41423761906538</v>
       </c>
       <c r="D9">
-        <v>5.779010747295259</v>
+        <v>5.183413376638292</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.58657901649702</v>
+        <v>23.14734605903525</v>
       </c>
       <c r="G9">
-        <v>19.61452330370886</v>
+        <v>26.73288992489164</v>
       </c>
       <c r="H9">
-        <v>8.182010396393746</v>
+        <v>13.84742057453278</v>
       </c>
       <c r="I9">
-        <v>13.30659043554511</v>
+        <v>21.95420817054962</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.14837671801381</v>
+        <v>9.013993483409454</v>
       </c>
       <c r="L9">
-        <v>8.703783958394061</v>
+        <v>10.76302782492405</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.05019585703549</v>
+        <v>20.79550208657847</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.99366846604305</v>
+        <v>12.3245680036529</v>
       </c>
       <c r="C10">
-        <v>7.223747217142263</v>
+        <v>10.37656908944677</v>
       </c>
       <c r="D10">
-        <v>6.12182647019108</v>
+        <v>5.321179718974597</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.01481295427675</v>
+        <v>23.09055723013959</v>
       </c>
       <c r="G10">
-        <v>20.03011090942734</v>
+        <v>26.61458842156533</v>
       </c>
       <c r="H10">
-        <v>8.067376815195017</v>
+        <v>13.77568503269183</v>
       </c>
       <c r="I10">
-        <v>13.05569839610332</v>
+        <v>21.80577487319793</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.07389074091199</v>
+        <v>9.470180405519525</v>
       </c>
       <c r="L10">
-        <v>9.21087122801606</v>
+        <v>10.83291851954537</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.99091535958866</v>
+        <v>20.67804157111554</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.61188695226944</v>
+        <v>12.5785774277212</v>
       </c>
       <c r="C11">
-        <v>7.180681664133651</v>
+        <v>10.36049242589847</v>
       </c>
       <c r="D11">
-        <v>6.27128758672601</v>
+        <v>5.382015525758725</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.22676141611807</v>
+        <v>23.07121679783655</v>
       </c>
       <c r="G11">
-        <v>20.25096010046538</v>
+        <v>26.57014167228329</v>
       </c>
       <c r="H11">
-        <v>8.021655503953415</v>
+        <v>13.7452465674648</v>
       </c>
       <c r="I11">
-        <v>12.95616203217329</v>
+        <v>21.74270556905888</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.47560610249353</v>
+        <v>9.669209760116221</v>
       </c>
       <c r="L11">
-        <v>9.43806022926687</v>
+        <v>10.86673739108264</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.97993636111633</v>
+        <v>20.62918602367487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.84099214007402</v>
+        <v>12.67352915487129</v>
       </c>
       <c r="C12">
-        <v>7.164693599567637</v>
+        <v>10.35455626701697</v>
       </c>
       <c r="D12">
-        <v>6.326932934939848</v>
+        <v>5.404777457494636</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.30949923815959</v>
+        <v>23.06482842048108</v>
       </c>
       <c r="G12">
-        <v>20.3392808060838</v>
+        <v>26.55466561886383</v>
       </c>
       <c r="H12">
-        <v>8.005321443755333</v>
+        <v>13.73403560876623</v>
       </c>
       <c r="I12">
-        <v>12.92072418900449</v>
+        <v>21.71946367620789</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.62492363400781</v>
+        <v>9.743316998422177</v>
       </c>
       <c r="L12">
-        <v>9.523529365631067</v>
+        <v>10.87982721926995</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.97821986510318</v>
+        <v>20.61134538233454</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.79187199527827</v>
+        <v>12.65313577853747</v>
       </c>
       <c r="C13">
-        <v>7.168122612901986</v>
+        <v>10.35582798571585</v>
       </c>
       <c r="D13">
-        <v>6.314991338355247</v>
+        <v>5.399887685632929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.29156986744444</v>
+        <v>23.06616264659925</v>
       </c>
       <c r="G13">
-        <v>20.32004915850375</v>
+        <v>26.55793828608496</v>
       </c>
       <c r="H13">
-        <v>8.008794783487378</v>
+        <v>13.73643606243091</v>
       </c>
       <c r="I13">
-        <v>12.92825350158338</v>
+        <v>21.72444071066612</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.5928904469714</v>
+        <v>9.727413333210384</v>
       </c>
       <c r="L13">
-        <v>9.505147936349283</v>
+        <v>10.87699561802604</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.97847870731081</v>
+        <v>20.61515830926553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.63083556222277</v>
+        <v>12.58641437128487</v>
       </c>
       <c r="C14">
-        <v>7.179359878309636</v>
+        <v>10.3600010168662</v>
       </c>
       <c r="D14">
-        <v>6.275884747112115</v>
+        <v>5.383893743421028</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.23351861096763</v>
+        <v>23.07067246683111</v>
       </c>
       <c r="G14">
-        <v>20.25813171675915</v>
+        <v>26.56884125085127</v>
       </c>
       <c r="H14">
-        <v>8.020291726821211</v>
+        <v>13.74431791417422</v>
       </c>
       <c r="I14">
-        <v>12.95320042711492</v>
+        <v>21.74078059245388</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.48794685200652</v>
+        <v>9.675332085760367</v>
       </c>
       <c r="L14">
-        <v>9.445103411927928</v>
+        <v>10.86780866683269</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.97974540556164</v>
+        <v>20.62770502896268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.53154606223811</v>
+        <v>12.54538234216984</v>
       </c>
       <c r="C15">
-        <v>7.186284827345396</v>
+        <v>10.3625768617952</v>
       </c>
       <c r="D15">
-        <v>6.251806296706533</v>
+        <v>5.374060816338367</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.19828341647354</v>
+        <v>23.07355672427352</v>
       </c>
       <c r="G15">
-        <v>20.22081934159152</v>
+        <v>26.57569630496875</v>
       </c>
       <c r="H15">
-        <v>8.027463222281291</v>
+        <v>13.749186850457</v>
       </c>
       <c r="I15">
-        <v>12.96877953716028</v>
+        <v>21.7508727496157</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.42330014160633</v>
+        <v>9.643265527056661</v>
       </c>
       <c r="L15">
-        <v>9.408249525416409</v>
+        <v>10.86221805443208</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.98084341846763</v>
+        <v>20.63547624219121</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.95256445867316</v>
+        <v>12.30779913299307</v>
       </c>
       <c r="C16">
-        <v>7.226606176992976</v>
+        <v>10.37764099863905</v>
       </c>
       <c r="D16">
-        <v>6.111926540349756</v>
+        <v>5.31716604302801</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.00130783655923</v>
+        <v>23.09195198972945</v>
       </c>
       <c r="G16">
-        <v>20.01632832682778</v>
+        <v>26.61768232546751</v>
       </c>
       <c r="H16">
-        <v>8.070498783765826</v>
+        <v>13.77771840394002</v>
       </c>
       <c r="I16">
-        <v>13.06251008172891</v>
+        <v>21.80998627511788</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.04724667341447</v>
+        <v>9.456998971816336</v>
       </c>
       <c r="L16">
-        <v>9.19594828238332</v>
+        <v>10.83074846657087</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.99196668995416</v>
+        <v>20.68132665148963</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.5884282928937</v>
+        <v>12.15993189882239</v>
       </c>
       <c r="C17">
-        <v>7.251907120310371</v>
+        <v>10.38715318505391</v>
       </c>
       <c r="D17">
-        <v>6.024438174027479</v>
+        <v>5.281784664109715</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.88487196309877</v>
+        <v>23.10490131604547</v>
       </c>
       <c r="G17">
-        <v>19.8991149207068</v>
+        <v>26.64584474200027</v>
       </c>
       <c r="H17">
-        <v>8.098583940849258</v>
+        <v>13.79578353280622</v>
       </c>
       <c r="I17">
-        <v>13.12385625233524</v>
+        <v>21.84739166222406</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.81158297503928</v>
+        <v>9.340525489996306</v>
       </c>
       <c r="L17">
-        <v>9.064768623972581</v>
+        <v>10.81195614164359</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.00298596137259</v>
+        <v>20.71062803358615</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37568537951557</v>
+        <v>12.07413093392527</v>
       </c>
       <c r="C18">
-        <v>7.266665886344733</v>
+        <v>10.39272404785379</v>
       </c>
       <c r="D18">
-        <v>5.973507449713896</v>
+        <v>5.26126217194921</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.81951453689777</v>
+        <v>23.11296051531016</v>
       </c>
       <c r="G18">
-        <v>19.83468422398584</v>
+        <v>26.66292447313207</v>
       </c>
       <c r="H18">
-        <v>8.115339086661706</v>
+        <v>13.80638067035515</v>
       </c>
       <c r="I18">
-        <v>13.16050477604965</v>
+        <v>21.86932541837509</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.67421928616373</v>
+        <v>9.272735706609206</v>
       </c>
       <c r="L18">
-        <v>8.988992293955556</v>
+        <v>10.80133841779739</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.01082022589864</v>
+        <v>20.72791220539155</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.30308611549452</v>
+        <v>12.04495373095873</v>
       </c>
       <c r="C19">
-        <v>7.271698267468434</v>
+        <v>10.39462738753765</v>
       </c>
       <c r="D19">
-        <v>5.95615911564918</v>
+        <v>5.25428441666478</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.79766221955206</v>
+        <v>23.11579411590278</v>
       </c>
       <c r="G19">
-        <v>19.81337819583825</v>
+        <v>26.66885852227552</v>
       </c>
       <c r="H19">
-        <v>8.121113733627096</v>
+        <v>13.81000415872573</v>
       </c>
       <c r="I19">
-        <v>13.1731430149851</v>
+        <v>21.87682378482455</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.62739936068866</v>
+        <v>9.249647604747224</v>
       </c>
       <c r="L19">
-        <v>8.963281884784086</v>
+        <v>10.79777649764117</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.01372545428477</v>
+        <v>20.7338382686543</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.62753261918213</v>
+        <v>12.17575102782958</v>
       </c>
       <c r="C20">
-        <v>7.249192407872282</v>
+        <v>10.38613028150674</v>
       </c>
       <c r="D20">
-        <v>6.03381471768168</v>
+        <v>5.285568964637309</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.89709966198138</v>
+        <v>23.10345957857248</v>
       </c>
       <c r="G20">
-        <v>19.91128237909275</v>
+        <v>26.64275551972507</v>
       </c>
       <c r="H20">
-        <v>8.095531604395376</v>
+        <v>13.79383909244325</v>
       </c>
       <c r="I20">
-        <v>13.11718360478789</v>
+        <v>21.84336640820633</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.83685797124549</v>
+        <v>9.353007114002336</v>
       </c>
       <c r="L20">
-        <v>9.078767058263319</v>
+        <v>10.81393689174165</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.00165705819647</v>
+        <v>20.70746425440165</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.67827125917378</v>
+        <v>12.60604621780884</v>
       </c>
       <c r="C21">
-        <v>7.176050501717189</v>
+        <v>10.3587711830392</v>
       </c>
       <c r="D21">
-        <v>6.287397283161267</v>
+        <v>5.388599110369599</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.25050237416715</v>
+        <v>23.06932242495605</v>
       </c>
       <c r="G21">
-        <v>20.27619026894677</v>
+        <v>26.56560195445569</v>
       </c>
       <c r="H21">
-        <v>8.016887748510046</v>
+        <v>13.74199426357291</v>
       </c>
       <c r="I21">
-        <v>12.94581043136617</v>
+        <v>21.73596376894582</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.51884758285882</v>
+        <v>9.690664120758219</v>
       </c>
       <c r="L21">
-        <v>9.4627556444417</v>
+        <v>10.8704994717122</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.97930596065069</v>
+        <v>20.62400183118206</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.33586164101228</v>
+        <v>12.88003234897719</v>
       </c>
       <c r="C22">
-        <v>7.130115180630452</v>
+        <v>10.34177454864922</v>
       </c>
       <c r="D22">
-        <v>6.447570789992232</v>
+        <v>5.454325968184599</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.49591277859109</v>
+        <v>23.05246462571624</v>
       </c>
       <c r="G22">
-        <v>20.54205296074657</v>
+        <v>26.52307850752376</v>
       </c>
       <c r="H22">
-        <v>7.97122778580821</v>
+        <v>13.70994917466283</v>
       </c>
       <c r="I22">
-        <v>12.84702869895409</v>
+        <v>21.66950698955145</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.94822080450548</v>
+        <v>9.903978350091061</v>
       </c>
       <c r="L22">
-        <v>9.710414868123598</v>
+        <v>10.90911406029314</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.97899274362953</v>
+        <v>20.57330141470255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98754486646723</v>
+        <v>12.73448752900843</v>
       </c>
       <c r="C23">
-        <v>7.154459331529941</v>
+        <v>10.35076525502489</v>
       </c>
       <c r="D23">
-        <v>6.362597137900897</v>
+        <v>5.419397159319887</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.36360918717738</v>
+        <v>23.06096258222118</v>
       </c>
       <c r="G23">
-        <v>20.39761956018846</v>
+        <v>26.54504877524597</v>
       </c>
       <c r="H23">
-        <v>7.995052987431314</v>
+        <v>13.72688405622946</v>
       </c>
       <c r="I23">
-        <v>12.89848641153218</v>
+        <v>21.70463406029239</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.72055857480686</v>
+        <v>9.79081415739005</v>
       </c>
       <c r="L23">
-        <v>9.578553978242589</v>
+        <v>10.88835667255385</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.97780483083452</v>
+        <v>20.60000864432212</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.60986413454545</v>
+        <v>12.16860165439648</v>
       </c>
       <c r="C24">
-        <v>7.250419066493631</v>
+        <v>10.3865924178747</v>
       </c>
       <c r="D24">
-        <v>6.029577550867242</v>
+        <v>5.283858646100483</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.89156658931465</v>
+        <v>23.10410947423648</v>
       </c>
       <c r="G24">
-        <v>19.90577227041852</v>
+        <v>26.64414938922082</v>
       </c>
       <c r="H24">
-        <v>8.096909674165961</v>
+        <v>13.79471751587611</v>
       </c>
       <c r="I24">
-        <v>13.12019602263958</v>
+        <v>21.845184889596</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.82543699125462</v>
+        <v>9.347366746623194</v>
       </c>
       <c r="L24">
-        <v>9.072439480828947</v>
+        <v>10.81304081393698</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.00225319658516</v>
+        <v>20.70889323345243</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.99745700438404</v>
+        <v>11.52987603471758</v>
       </c>
       <c r="C25">
-        <v>7.361803193222051</v>
+        <v>10.42905209410522</v>
       </c>
       <c r="D25">
-        <v>5.647165065410937</v>
+        <v>5.131132151576366</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.44393953924681</v>
+        <v>23.1740017447541</v>
       </c>
       <c r="G25">
-        <v>19.4887468930638</v>
+        <v>26.78470807374942</v>
       </c>
       <c r="H25">
-        <v>8.229574786845717</v>
+        <v>13.87578455955886</v>
       </c>
       <c r="I25">
-        <v>13.41095422756781</v>
+        <v>22.0128153451536</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.79066733486069</v>
+        <v>8.83876197660781</v>
       </c>
       <c r="L25">
-        <v>8.514412400359451</v>
+        <v>10.73913504185594</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.08526826926017</v>
+        <v>20.84280640598273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.03862867309277</v>
+        <v>14.70009210261445</v>
       </c>
       <c r="C2">
-        <v>10.46362126793317</v>
+        <v>7.450472302040474</v>
       </c>
       <c r="D2">
-        <v>5.013500794671782</v>
+        <v>5.346536281846767</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.245453624285</v>
+        <v>16.16618345986656</v>
       </c>
       <c r="G2">
-        <v>26.91683923314161</v>
+        <v>19.27352549061523</v>
       </c>
       <c r="H2">
-        <v>13.94228090598551</v>
+        <v>8.345008952698025</v>
       </c>
       <c r="I2">
-        <v>22.15002040049483</v>
+        <v>13.66427313360087</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.439931415931676</v>
+        <v>11.97066804727405</v>
       </c>
       <c r="L2">
-        <v>10.69127450089207</v>
+        <v>8.095821398367429</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.95551894564453</v>
+        <v>13.18995642055355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.69467902262472</v>
+        <v>13.75151208823634</v>
       </c>
       <c r="C3">
-        <v>10.48912479837419</v>
+        <v>7.514670889672513</v>
       </c>
       <c r="D3">
-        <v>4.930791152058882</v>
+        <v>5.13151508767252</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.30628689449248</v>
+        <v>16.00937555678653</v>
       </c>
       <c r="G3">
-        <v>27.02407541806606</v>
+        <v>19.18128714057092</v>
       </c>
       <c r="H3">
-        <v>13.99159993323542</v>
+        <v>8.433474961649981</v>
       </c>
       <c r="I3">
-        <v>22.25160119455323</v>
+        <v>13.85811994285225</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.155509766788979</v>
+        <v>11.37985191887109</v>
       </c>
       <c r="L3">
-        <v>10.66304055458695</v>
+        <v>7.809009051568908</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.04068496122188</v>
+        <v>13.28555878908624</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.47884062508277</v>
+        <v>13.13471576124445</v>
       </c>
       <c r="C4">
-        <v>10.50581232053383</v>
+        <v>7.556102321141156</v>
       </c>
       <c r="D4">
-        <v>4.878619746198796</v>
+        <v>4.994184866329298</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.34973631702271</v>
+        <v>15.9281870627605</v>
       </c>
       <c r="G4">
-        <v>27.09858183348178</v>
+        <v>19.14967816432456</v>
       </c>
       <c r="H4">
-        <v>14.02398276135783</v>
+        <v>8.492587522897558</v>
       </c>
       <c r="I4">
-        <v>22.31821212594399</v>
+        <v>13.98738890165456</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.974326102315008</v>
+        <v>11.00031954251001</v>
       </c>
       <c r="L4">
-        <v>10.64781084780533</v>
+        <v>7.63202171055091</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.09729974426048</v>
+        <v>13.35560999044731</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38984506467465</v>
+        <v>12.87470911292989</v>
       </c>
       <c r="C5">
-        <v>10.51287181592245</v>
+        <v>7.573490539627895</v>
       </c>
       <c r="D5">
-        <v>4.857024593929054</v>
+        <v>4.936933327980785</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.36897184404096</v>
+        <v>15.89882471490052</v>
       </c>
       <c r="G5">
-        <v>27.13111252999717</v>
+        <v>19.14286018742102</v>
       </c>
       <c r="H5">
-        <v>14.03770760383391</v>
+        <v>8.517846307160292</v>
       </c>
       <c r="I5">
-        <v>22.34642269433109</v>
+        <v>14.04254820290628</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.898917771888166</v>
+        <v>10.84154292876497</v>
       </c>
       <c r="L5">
-        <v>10.64213899967354</v>
+        <v>7.559785431748556</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.12145638684692</v>
+        <v>13.38689373192851</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.37500862718575</v>
+        <v>12.83101200767236</v>
       </c>
       <c r="C6">
-        <v>10.51405971314626</v>
+        <v>7.57640827172504</v>
       </c>
       <c r="D6">
-        <v>4.853418928649978</v>
+        <v>4.927350413051342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.37225815182638</v>
+        <v>15.89417160604338</v>
       </c>
       <c r="G6">
-        <v>27.13664492282801</v>
+        <v>19.14208721509789</v>
       </c>
       <c r="H6">
-        <v>14.04001853804758</v>
+        <v>8.522110172840161</v>
       </c>
       <c r="I6">
-        <v>22.35117142407355</v>
+        <v>14.05185456268094</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.886303431642807</v>
+        <v>10.81493311782967</v>
       </c>
       <c r="L6">
-        <v>10.64122959909316</v>
+        <v>7.547787221538571</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.12553311287489</v>
+        <v>13.39225035030625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.47764443002599</v>
+        <v>13.13124428940299</v>
       </c>
       <c r="C7">
-        <v>10.50590647704483</v>
+        <v>7.556334783715918</v>
       </c>
       <c r="D7">
-        <v>4.878329843479753</v>
+        <v>4.993417903022742</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.34998954627174</v>
+        <v>15.92777610357264</v>
       </c>
       <c r="G7">
-        <v>27.09901178580636</v>
+        <v>19.14956198196685</v>
       </c>
       <c r="H7">
-        <v>14.02416571875438</v>
+        <v>8.49292348002168</v>
       </c>
       <c r="I7">
-        <v>22.31858826713587</v>
+        <v>13.98812287408986</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.973315393705581</v>
+        <v>10.9981947327407</v>
       </c>
       <c r="L7">
-        <v>10.64773218562678</v>
+        <v>7.63104781141299</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.09762113508298</v>
+        <v>13.35602096253387</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92107524383545</v>
+        <v>14.38014233198552</v>
       </c>
       <c r="C8">
-        <v>10.472201851051</v>
+        <v>7.472189037813457</v>
       </c>
       <c r="D8">
-        <v>4.985278664844802</v>
+        <v>5.273523871962533</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.26516125231658</v>
+        <v>16.10894387514134</v>
       </c>
       <c r="G8">
-        <v>26.9520106027581</v>
+        <v>19.23639469076244</v>
       </c>
       <c r="H8">
-        <v>13.95885029344204</v>
+        <v>8.374494922057009</v>
       </c>
       <c r="I8">
-        <v>22.1841654081106</v>
+        <v>13.72892536533418</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.343262606995447</v>
+        <v>11.7704903743795</v>
       </c>
       <c r="L8">
-        <v>10.681105354174</v>
+        <v>7.997174983105835</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.98398629294027</v>
+        <v>13.22049275326026</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.74853485867329</v>
+        <v>16.55761793000032</v>
       </c>
       <c r="C9">
-        <v>10.41423761906538</v>
+        <v>7.323242091704952</v>
       </c>
       <c r="D9">
-        <v>5.183413376638292</v>
+        <v>5.77901074729524</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.14734605903525</v>
+        <v>16.58657901649708</v>
       </c>
       <c r="G9">
-        <v>26.73288992489164</v>
+        <v>19.61452330370886</v>
       </c>
       <c r="H9">
-        <v>13.84742057453278</v>
+        <v>8.182010396393807</v>
       </c>
       <c r="I9">
-        <v>21.95420817054962</v>
+        <v>13.30659043554516</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.013993483409454</v>
+        <v>13.14837671801378</v>
       </c>
       <c r="L9">
-        <v>10.76302782492405</v>
+        <v>8.703783958394101</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.79550208657847</v>
+        <v>13.05019585703556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.3245680036529</v>
+        <v>17.99366846604314</v>
       </c>
       <c r="C10">
-        <v>10.37656908944677</v>
+        <v>7.223747217142142</v>
       </c>
       <c r="D10">
-        <v>5.321179718974597</v>
+        <v>6.121826470191075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.09055723013959</v>
+        <v>17.01481295427659</v>
       </c>
       <c r="G10">
-        <v>26.61458842156533</v>
+        <v>20.03011090942714</v>
       </c>
       <c r="H10">
-        <v>13.77568503269183</v>
+        <v>8.067376815194855</v>
       </c>
       <c r="I10">
-        <v>21.80577487319793</v>
+        <v>13.05569839610307</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.470180405519525</v>
+        <v>14.07389074091203</v>
       </c>
       <c r="L10">
-        <v>10.83291851954537</v>
+        <v>9.21087122801603</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.67804157111554</v>
+        <v>12.99091535958846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.5785774277212</v>
+        <v>18.61188695226943</v>
       </c>
       <c r="C11">
-        <v>10.36049242589847</v>
+        <v>7.180681664133645</v>
       </c>
       <c r="D11">
-        <v>5.382015525758725</v>
+        <v>6.27128758672603</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.07121679783655</v>
+        <v>17.22676141611805</v>
       </c>
       <c r="G11">
-        <v>26.57014167228329</v>
+        <v>20.25096010046544</v>
       </c>
       <c r="H11">
-        <v>13.7452465674648</v>
+        <v>8.021655503953367</v>
       </c>
       <c r="I11">
-        <v>21.74270556905888</v>
+        <v>12.9561620321733</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.669209760116221</v>
+        <v>14.47560610249352</v>
       </c>
       <c r="L11">
-        <v>10.86673739108264</v>
+        <v>9.43806022926691</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.62918602367487</v>
+        <v>12.97993636111635</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.67352915487129</v>
+        <v>18.84099214007408</v>
       </c>
       <c r="C12">
-        <v>10.35455626701697</v>
+        <v>7.164693599567642</v>
       </c>
       <c r="D12">
-        <v>5.404777457494636</v>
+        <v>6.326932934939847</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.06482842048108</v>
+        <v>17.30949923815952</v>
       </c>
       <c r="G12">
-        <v>26.55466561886383</v>
+        <v>20.33928080608374</v>
       </c>
       <c r="H12">
-        <v>13.73403560876623</v>
+        <v>8.005321443755333</v>
       </c>
       <c r="I12">
-        <v>21.71946367620789</v>
+        <v>12.92072418900442</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.743316998422177</v>
+        <v>14.62492363400786</v>
       </c>
       <c r="L12">
-        <v>10.87982721926995</v>
+        <v>9.5235293656311</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.61134538233454</v>
+        <v>12.97821986510313</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.65313577853747</v>
+        <v>18.79187199527831</v>
       </c>
       <c r="C13">
-        <v>10.35582798571585</v>
+        <v>7.168122612901954</v>
       </c>
       <c r="D13">
-        <v>5.399887685632929</v>
+        <v>6.314991338355315</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.06616264659925</v>
+        <v>17.29156986744448</v>
       </c>
       <c r="G13">
-        <v>26.55793828608496</v>
+        <v>20.32004915850386</v>
       </c>
       <c r="H13">
-        <v>13.73643606243091</v>
+        <v>8.008794783487398</v>
       </c>
       <c r="I13">
-        <v>21.72444071066612</v>
+        <v>12.92825350158342</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.727413333210384</v>
+        <v>14.59289044697139</v>
       </c>
       <c r="L13">
-        <v>10.87699561802604</v>
+        <v>9.505147936349282</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.61515830926553</v>
+        <v>12.9784787073109</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.58641437128487</v>
+        <v>18.63083556222274</v>
       </c>
       <c r="C14">
-        <v>10.3600010168662</v>
+        <v>7.179359878309628</v>
       </c>
       <c r="D14">
-        <v>5.383893743421028</v>
+        <v>6.275884747112102</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.07067246683111</v>
+        <v>17.23351861096762</v>
       </c>
       <c r="G14">
-        <v>26.56884125085127</v>
+        <v>20.25813171675918</v>
       </c>
       <c r="H14">
-        <v>13.74431791417422</v>
+        <v>8.020291726821176</v>
       </c>
       <c r="I14">
-        <v>21.74078059245388</v>
+        <v>12.95320042711488</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.675332085760367</v>
+        <v>14.48794685200651</v>
       </c>
       <c r="L14">
-        <v>10.86780866683269</v>
+        <v>9.445103411927937</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.62770502896268</v>
+        <v>12.97974540556162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.54538234216984</v>
+        <v>18.53154606223816</v>
       </c>
       <c r="C15">
-        <v>10.3625768617952</v>
+        <v>7.186284827345384</v>
       </c>
       <c r="D15">
-        <v>5.374060816338367</v>
+        <v>6.251806296706539</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.07355672427352</v>
+        <v>17.19828341647347</v>
       </c>
       <c r="G15">
-        <v>26.57569630496875</v>
+        <v>20.22081934159137</v>
       </c>
       <c r="H15">
-        <v>13.749186850457</v>
+        <v>8.027463222281291</v>
       </c>
       <c r="I15">
-        <v>21.7508727496157</v>
+        <v>12.9687795371602</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.643265527056661</v>
+        <v>14.42330014160638</v>
       </c>
       <c r="L15">
-        <v>10.86221805443208</v>
+        <v>9.408249525416403</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.63547624219121</v>
+        <v>12.98084341846756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.30779913299307</v>
+        <v>17.9525644586732</v>
       </c>
       <c r="C16">
-        <v>10.37764099863905</v>
+        <v>7.22660617699296</v>
       </c>
       <c r="D16">
-        <v>5.31716604302801</v>
+        <v>6.111926540349917</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.09195198972945</v>
+        <v>17.00130783655914</v>
       </c>
       <c r="G16">
-        <v>26.61768232546751</v>
+        <v>20.01632832682782</v>
       </c>
       <c r="H16">
-        <v>13.77771840394002</v>
+        <v>8.070498783765762</v>
       </c>
       <c r="I16">
-        <v>21.80998627511788</v>
+        <v>13.06251008172891</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.456998971816336</v>
+        <v>14.0472466734145</v>
       </c>
       <c r="L16">
-        <v>10.83074846657087</v>
+        <v>9.195948282383327</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.68132665148963</v>
+        <v>12.99196668995414</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.15993189882239</v>
+        <v>17.5884282928937</v>
       </c>
       <c r="C17">
-        <v>10.38715318505391</v>
+        <v>7.251907120310366</v>
       </c>
       <c r="D17">
-        <v>5.281784664109715</v>
+        <v>6.024438174027465</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.10490131604547</v>
+        <v>16.88487196309879</v>
       </c>
       <c r="G17">
-        <v>26.64584474200027</v>
+        <v>19.89911492070683</v>
       </c>
       <c r="H17">
-        <v>13.79578353280622</v>
+        <v>8.098583940849265</v>
       </c>
       <c r="I17">
-        <v>21.84739166222406</v>
+        <v>13.12385625233526</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.340525489996306</v>
+        <v>13.81158297503927</v>
       </c>
       <c r="L17">
-        <v>10.81195614164359</v>
+        <v>9.064768623972631</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.71062803358615</v>
+        <v>13.0029859613726</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.07413093392527</v>
+        <v>17.37568537951558</v>
       </c>
       <c r="C18">
-        <v>10.39272404785379</v>
+        <v>7.266665886344849</v>
       </c>
       <c r="D18">
-        <v>5.26126217194921</v>
+        <v>5.97350744971386</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.11296051531016</v>
+        <v>16.8195145368978</v>
       </c>
       <c r="G18">
-        <v>26.66292447313207</v>
+        <v>19.83468422398588</v>
       </c>
       <c r="H18">
-        <v>13.80638067035515</v>
+        <v>8.115339086661706</v>
       </c>
       <c r="I18">
-        <v>21.86932541837509</v>
+        <v>13.1605047760497</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.272735706609206</v>
+        <v>13.67421928616375</v>
       </c>
       <c r="L18">
-        <v>10.80133841779739</v>
+        <v>8.988992293955526</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.72791220539155</v>
+        <v>13.01082022589868</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.04495373095873</v>
+        <v>17.3030861154945</v>
       </c>
       <c r="C19">
-        <v>10.39462738753765</v>
+        <v>7.271698267468684</v>
       </c>
       <c r="D19">
-        <v>5.25428441666478</v>
+        <v>5.956159115649187</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.11579411590278</v>
+        <v>16.79766221955209</v>
       </c>
       <c r="G19">
-        <v>26.66885852227552</v>
+        <v>19.8133781958384</v>
       </c>
       <c r="H19">
-        <v>13.81000415872573</v>
+        <v>8.121113733627093</v>
       </c>
       <c r="I19">
-        <v>21.87682378482455</v>
+        <v>13.17314301498518</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.249647604747224</v>
+        <v>13.62739936068867</v>
       </c>
       <c r="L19">
-        <v>10.79777649764117</v>
+        <v>8.963281884784115</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.7338382686543</v>
+        <v>13.01372545428479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.17575102782958</v>
+        <v>17.62753261918219</v>
       </c>
       <c r="C20">
-        <v>10.38613028150674</v>
+        <v>7.249192407872266</v>
       </c>
       <c r="D20">
-        <v>5.285568964637309</v>
+        <v>6.033814717681744</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.10345957857248</v>
+        <v>16.8970996619812</v>
       </c>
       <c r="G20">
-        <v>26.64275551972507</v>
+        <v>19.91128237909256</v>
       </c>
       <c r="H20">
-        <v>13.79383909244325</v>
+        <v>8.095531604395321</v>
       </c>
       <c r="I20">
-        <v>21.84336640820633</v>
+        <v>13.11718360478778</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.353007114002336</v>
+        <v>13.83685797124553</v>
       </c>
       <c r="L20">
-        <v>10.81393689174165</v>
+        <v>9.078767058263285</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.70746425440165</v>
+        <v>13.00165705819635</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.60604621780884</v>
+        <v>18.67827125917375</v>
       </c>
       <c r="C21">
-        <v>10.3587711830392</v>
+        <v>7.176050501717429</v>
       </c>
       <c r="D21">
-        <v>5.388599110369599</v>
+        <v>6.287397283161281</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.06932242495605</v>
+        <v>17.25050237416718</v>
       </c>
       <c r="G21">
-        <v>26.56560195445569</v>
+        <v>20.27619026894687</v>
       </c>
       <c r="H21">
-        <v>13.74199426357291</v>
+        <v>8.016887748510051</v>
       </c>
       <c r="I21">
-        <v>21.73596376894582</v>
+        <v>12.94581043136623</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.690664120758219</v>
+        <v>14.51884758285884</v>
       </c>
       <c r="L21">
-        <v>10.8704994717122</v>
+        <v>9.46275564444174</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.62400183118206</v>
+        <v>12.97930596065071</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.88003234897719</v>
+        <v>19.33586164101224</v>
       </c>
       <c r="C22">
-        <v>10.34177454864922</v>
+        <v>7.130115180630573</v>
       </c>
       <c r="D22">
-        <v>5.454325968184599</v>
+        <v>6.447570789992245</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.05246462571624</v>
+        <v>17.49591277859119</v>
       </c>
       <c r="G22">
-        <v>26.52307850752376</v>
+        <v>20.54205296074679</v>
       </c>
       <c r="H22">
-        <v>13.70994917466283</v>
+        <v>7.971227785808217</v>
       </c>
       <c r="I22">
-        <v>21.66950698955145</v>
+        <v>12.84702869895425</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.903978350091061</v>
+        <v>14.94822080450545</v>
       </c>
       <c r="L22">
-        <v>10.90911406029314</v>
+        <v>9.710414868123594</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.57330141470255</v>
+        <v>12.97899274362963</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.73448752900843</v>
+        <v>18.98754486646735</v>
       </c>
       <c r="C23">
-        <v>10.35076525502489</v>
+        <v>7.154459331529825</v>
       </c>
       <c r="D23">
-        <v>5.419397159319887</v>
+        <v>6.362597137900762</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.06096258222118</v>
+        <v>17.36360918717725</v>
       </c>
       <c r="G23">
-        <v>26.54504877524597</v>
+        <v>20.39761956018808</v>
       </c>
       <c r="H23">
-        <v>13.72688405622946</v>
+        <v>7.995052987431269</v>
       </c>
       <c r="I23">
-        <v>21.70463406029239</v>
+        <v>12.8984864115319</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.79081415739005</v>
+        <v>14.72055857480694</v>
       </c>
       <c r="L23">
-        <v>10.88835667255385</v>
+        <v>9.578553978242606</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.60000864432212</v>
+        <v>12.9778048308343</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.16860165439648</v>
+        <v>17.6098641345455</v>
       </c>
       <c r="C24">
-        <v>10.3865924178747</v>
+        <v>7.250419066493621</v>
       </c>
       <c r="D24">
-        <v>5.283858646100483</v>
+        <v>6.029577550867188</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.10410947423648</v>
+        <v>16.89156658931475</v>
       </c>
       <c r="G24">
-        <v>26.64414938922082</v>
+        <v>19.9057722704186</v>
       </c>
       <c r="H24">
-        <v>13.79471751587611</v>
+        <v>8.096909674165978</v>
       </c>
       <c r="I24">
-        <v>21.845184889596</v>
+        <v>13.12019602263962</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.347366746623194</v>
+        <v>13.82543699125468</v>
       </c>
       <c r="L24">
-        <v>10.81304081393698</v>
+        <v>9.072439480828926</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.70889323345243</v>
+        <v>13.00225319658521</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.52987603471758</v>
+        <v>15.99745700438405</v>
       </c>
       <c r="C25">
-        <v>10.42905209410522</v>
+        <v>7.361803193222183</v>
       </c>
       <c r="D25">
-        <v>5.131132151576366</v>
+        <v>5.647165065410982</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.1740017447541</v>
+        <v>16.44393953924659</v>
       </c>
       <c r="G25">
-        <v>26.78470807374942</v>
+        <v>19.48874689306346</v>
       </c>
       <c r="H25">
-        <v>13.87578455955886</v>
+        <v>8.229574786845603</v>
       </c>
       <c r="I25">
-        <v>22.0128153451536</v>
+        <v>13.41095422756767</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.83876197660781</v>
+        <v>12.79066733486072</v>
       </c>
       <c r="L25">
-        <v>10.73913504185594</v>
+        <v>8.514412400359472</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.84280640598273</v>
+        <v>13.08526826925999</v>
       </c>
     </row>
   </sheetData>
